--- a/project/excel/modelcards.xlsx
+++ b/project/excel/modelcards.xlsx
@@ -437,11 +437,453 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>dataset_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>dataset_link</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>dataset_sensitive</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>dataset_graphics</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>graphics_description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>graphics_collection</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ModelCard_schema_version</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ModelCard_model_details</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ModelCard_model_parameters</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ModelCard_quantitative_analysis</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ModelCard_considerations</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>owner_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>owner_contact</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>performance_metric_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>performance_metric_value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>performance_metric_confidence_interval</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>performance_metric_threshold</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>performance_metric_slice</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>risk_mitigation_strategy</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>graphic_image</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>graphics_description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>graphics_collection</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ModelCard_schema_version</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ModelCard_model_details</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ModelCard_model_parameters</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ModelCard_quantitative_analysis</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ModelCard_considerations</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>owner_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>owner_contact</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>performance_metric_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>performance_metric_value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>performance_metric_confidence_interval</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>performance_metric_threshold</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>performance_metric_slice</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>risk_mitigation_strategy</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dataset_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>dataset_link</t>
         </is>
       </c>
@@ -461,7 +903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -478,196 +920,11 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>graphics_description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>graphics_collection</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Model Card_schema_version</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Model Card_model_details</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Model Card_model_parameters</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Model Card_quantitative_analysis</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Model Card_considerations</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
           <t>name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>owner_contact</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>performance_metric_type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>performance_metric_value</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>performance_metric_confidence_interval</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>performance_metric_threshold</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>performance_metric_slice</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>risk_mitigation_strategy</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
           <t>graphic_image</t>
         </is>
       </c>
@@ -675,261 +932,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>graphics_description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>graphics_collection</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Model Card_schema_version</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Model Card_model_details</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Model Card_model_parameters</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Model Card_quantitative_analysis</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Model Card_considerations</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>owner_contact</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>performance_metric_type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>performance_metric_value</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>performance_metric_confidence_interval</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>performance_metric_threshold</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>performance_metric_slice</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>risk_mitigation_strategy</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>dataset_link</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>dataset_sensitive</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>dataset_graphics</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>graphic_image</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/project/excel/modelcards.xlsx
+++ b/project/excel/modelcards.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>dataset_graphics</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>dataset_bias_input</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -498,6 +503,416 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ModelCard_schema_version</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ModelCard_model_details</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ModelCard_model_parameters</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ModelCard_quantitative_analysis</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ModelCard_considerations</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ModelCard_model_category</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ModelCard_bias_model</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>ModelCard_bias_output</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>owner_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>owner_contact</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>performance_metric_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>performance_metric_value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>performance_metric_confidence_interval</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>performance_metric_threshold</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>performance_metric_slice</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>performance_metric_value_error</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>risk_mitigation_strategy</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>graphic_image</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>graphics_description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>graphics_collection</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ModelCard_schema_version</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ModelCard_model_details</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ModelCard_model_parameters</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ModelCard_quantitative_analysis</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ModelCard_considerations</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ModelCard_model_category</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ModelCard_bias_model</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>ModelCard_bias_output</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>owner_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>owner_contact</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>performance_metric_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>performance_metric_value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>performance_metric_confidence_interval</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>performance_metric_threshold</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>performance_metric_slice</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>performance_metric_value_error</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>risk_mitigation_strategy</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -509,36 +924,36 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ModelCard_schema_version</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ModelCard_model_details</t>
+          <t>dataset_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>dataset_link</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ModelCard_model_parameters</t>
+          <t>dataset_sensitive</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ModelCard_quantitative_analysis</t>
+          <t>dataset_graphics</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>ModelCard_considerations</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>dataset_bias_input</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -555,119 +970,11 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>owner_name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>owner_contact</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>performance_metric_type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>performance_metric_value</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>performance_metric_confidence_interval</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>performance_metric_threshold</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>performance_metric_slice</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
           <t>name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>risk_mitigation_strategy</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
           <t>graphic_image</t>
         </is>
       </c>
@@ -675,261 +982,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>graphics_description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>graphics_collection</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ModelCard_schema_version</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ModelCard_model_details</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ModelCard_model_parameters</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ModelCard_quantitative_analysis</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>ModelCard_considerations</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>owner_name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>owner_contact</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>performance_metric_type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>performance_metric_value</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>performance_metric_confidence_interval</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>performance_metric_threshold</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>performance_metric_slice</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>risk_mitigation_strategy</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dataset_name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>dataset_link</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>dataset_sensitive</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>dataset_graphics</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>graphic_image</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>